--- a/DOWNLOADS/EDITAIS/U_153036_E_900192025/U_153036_E_900192025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_153036_E_900192025/U_153036_E_900192025_master.xlsx
@@ -400,7 +400,7 @@
     <t>CILINDRO GÁS. MATERIAL: ALUMÍNIO CAPACIDADE ARMAZENAGEM: 2 KG. TIPO GÁS: DIÓXIDO DE CARBONO. CARACTERÍSTICAS ADICIONAIS: VÁLVULA COM CONEXÃO PADRÃO.</t>
   </si>
   <si>
-    <t>COMPRESSOR PARA REFRIGERAÇÃO HERMÉTICO ¼ HP — GAS REFRIGERANTE R134-A TENSÃO: 110V, COMPATÍVEIL COM EQUIPAMENTOS DA MARCA ELECTROLUX.</t>
+    <t>COMPRESSOR PARA REFRIGERAÇÃO HERMÉTICO ¼ HP – GAS REFRIGERANTE R134-A TENSÃ: 110V, COMPATÍVEIL COM EQUIPAMENTOS DA MARCA ELECTROLUX.</t>
   </si>
   <si>
     <t>CORDA DE SEDA TRANÇADA COM 08 MM DE ESPESSURA EM 100M DE COMPRIMENTO. APRESENTAÇÃO : ROLO 100 METROS</t>
@@ -412,13 +412,13 @@
     <t>ESCOVA DE AÇO MATERIAL: AÇO CARBONO. MATERIAL CABO: MADEIRA. QUANTIDADE FIOS AÇO: 4 FILEIRAS. CARACTERÍSTICAS ADICIONAIS: BASE DE MADEIRA.</t>
   </si>
   <si>
-    <t>ENCORDOAMENTO PARA CAVAQUINHO. CORDAS DE AÇO PARA CAVAQUINHO; COMPATÍVEL COM A MARCA GIANNINI - MODELO: J-93; - COMPOSIÇÃO EM AÇO ESTANHADO E LISO. TENSÃO MÉDIA. -ÚMERO DE CORDAS NA EMBALAGEM :: 4 CORDAS.</t>
+    <t>ENCORDOAMENTO PARA CAVAQUINHO. CORDAS DE AÇO PARA CAVAQUINHO; COMPATÍVEL COM A MARCA GIANNINI - MODELO: J-93; - COMPOSIÇÃO EM AÇO ESTANHADO E LISO. TENSÃO MÉDIA. -ÚMERO DE CORDAS NA EMBALAGEM : 4 CORDAS.</t>
   </si>
   <si>
     <t>ENCORDOAMENTO PARA CONTRABAIXO 4 CORDAS . MATERIAL : AÇO; TENSÃO .045. COMPATÍVEL COM CONTRABAIXO MARCA IBANEZ GSR390. NÚMERO DE CORDAS NA EMBALAGEM : 4 CORDAS.</t>
   </si>
   <si>
-    <t>ENCORDOAMENTO PARA GUITARRA IBANEZ GIO GRG270- APLICAÇÃO: GUITARRA. DIMENSÕES: 15.000 X 11.000 X 22.000 CM. MATERIAL: AÇO. TENSÃO: .009 - .042. NÚMERO DE CORDAS NA EMBALAGEM : 6 CORDAS.</t>
+    <t>ENCORDOAMENTO PARA GUITARRA IBANEZ GIO GRG270-. APLICAÇÃO: GUITARRA. DIMENSÕES: 15.000 X 11.000 X 22.000 CM. MATERIAL: AÇO. TENSÃO: .009 - .042. NÚMERO DE CORDAS NA EMBALAGEM : 6 CORDAS.</t>
   </si>
   <si>
     <t>ENCORDOAMENTO PARA GUITARRA MICHAEL GM230 - MATERIAL DO NÚCLEO: AÇO. MATERIAL DE ENROLAMENTO: AÇO NIQUELADO. TENSÃO LEVE (0.010-0.046). NÚMERO DE CORDAS POR EMBALAGEM: 06 CORDAS.</t>
@@ -433,13 +433,13 @@
     <t>FILAMENTO - TIPO: PLA PARA IMPRESSORA 3D. COR: BRANCO. ESPESSURA: 2,85 MM. ROLO DE 1KG.</t>
   </si>
   <si>
-    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR AZUL, PARA IMPRESSORA 3D - MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL.</t>
-  </si>
-  <si>
-    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR BRANCO, PARA IMPRESSORA 3D - MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL..</t>
-  </si>
-  <si>
-    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR PRETA, PARA IMPRESSORA 3D - MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL.</t>
+    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR AZUL, PARA IMPRESSORA 3D – MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL.</t>
+  </si>
+  <si>
+    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR BRANCO, PARA IMPRESSORA 3D – MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL..</t>
+  </si>
+  <si>
+    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR PRETA, PARA IMPRESSORA 3D – MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL.</t>
   </si>
   <si>
     <t>LÂMINA BARBEAR - MATERIAL: AÇO INOXIDÁVEL. COMPRIMENTO 43 MM, LARGURA 22 MM, TIPO USO DESCARTÁVEL. CAIXA COM 03 UNIDADES</t>
@@ -475,12 +475,12 @@
     <t>PAPEL FILME, MATERIAL:PVC - CLORETO DE POLIVINILA, COMPRIMENTO:100 M, LARGURA:25 CM. APRESENTAÇÃO ROLO 100 METROS</t>
   </si>
   <si>
-    <t>BOBINA FILME PLÁSTICO - COMPOSIÇÃO: PVC/CLORETO DE POLIVINILA. COR: TRANSPARENTE. DIMENSÕES APROXIMADAS: LARGURA 28 CM X 30 M. TEMPERATURA DE USO: -10ºC ATÉ + 70ºC. CARACTERÍSTICAS ADICIONAIS: ESTICÁVEL, DESCARTÁVEL E ATÓXICO. APRESENTAÇÃO: ROLO DE 30 METROS.</t>
-  </si>
-  <si>
     <t>PAPEL FILME- MATERIAL: PVC (CLORETO DE POLIVINILA). COMPRIMENTO: 300 M. LARGURA: 29 CM. APRESENTAÇÃO: ROLO.</t>
   </si>
   <si>
+    <t>FILME PLÁSTICO - COMPOSIÇÃO: PVC/CLORETO DE POLIVINILA. COR: TRANSPARENTE. DIMENSÕES APROXIMADAS: LARGURA 28 CM X 30 M. TEMPERATURA DE USO: -10ºC ATÉ + 70ºC. CARACTERÍSTICAS ADICIONAIS: ESTICÁVEL, DESCARTÁVEL E ATÓXICO. APRESENTAÇÃO: ROLO DE 30 METROS.</t>
+  </si>
+  <si>
     <t>PAPEL MANTEIGA. MATERIAL CELULOSE VEGETAL. GRAMATURA 40G. COMPRIMENTO 7,5 M. LARGURA 29 CM. APLICAÇÃO CULINÁRIA EM GERAL.</t>
   </si>
   <si>
@@ -499,10 +499,10 @@
     <t>PENEIRA COZINHA. MATERIAL: AÇO INOXIDÁVEL. MATERIAL CABO: AÇO INOXIDÁVEL. DIÂMETRO: 27 CM. CARACTERÍSTICAS ADICIONAIS: FORMATO CÔNICO.</t>
   </si>
   <si>
-    <t>POTE DESCARTÁVEL — MATERIAL: POLIPROPILENO. FORMATO: REDONDO. CAPACIDADE: 200 ML. CARACTERÍSTICAS ADICIONAIS: MATERIAL ATÓXICO E TRANSPARENTE, COM SOBRETAMPA E SELO DE ALUMÍNIO COM POLIETILENO. APRESENTAÇÃO: EMBALAGEM CONTENDO 100 UNIDADES.VALOR REFERENTE RMBALAGEM COM 100 UNIDADES.</t>
-  </si>
-  <si>
-    <t>POTE DE VIDRO - CAPACIDADE: 2 LITROS. COM TAMPA PLASTICA ROSQUEAVEL.</t>
+    <t>POTE DESCARTÁVEL – MATERIAL: POLIPROPILENO. FORMATO: REDONDO. CAPACIDADE: 200 ML. CARACTERÍSTICAS ADICIONAIS: MATERIAL ATÓXICO E TRANSPARENTE, COM SOBRETAMPA E SELO DE ALUMÍNIO COM POLIETILENO. APRESENTAÇÃO: EMBALAGEM CONTENDO 100 UNIDADES.VALOR REFERENTE RMBALAGEM COM 100 UNIDADES.</t>
+  </si>
+  <si>
+    <t>POTE DE VIDRO - CAPACIDADE: 2 LITROS. COM TAMPA PLÁSTICA ROSQUEÁVEL.</t>
   </si>
   <si>
     <t>PORTA-BANNER COM LONGARINAS TELESCÓPICAS - BASE RETRÁTIL PESO: 7,20KG ACABAMENTO: PRETO EPOXÍ ALTURA MÁXIMA: 2,80CM X 2,80 CM BENEFICIOS: POSSUI LONGARINAS HORIZONTAIS TELESCÓPICA, PERMITINDO MAIOR OPÇÃO DE AJUSTE DO BANNER EXPOSTO.</t>
@@ -511,13 +511,13 @@
     <t>PORTA-CARTÃO - MATERIAL: RESINA POLICARBONATO. CAPACIDADE: 8 UNIDADES. CARACTERÍSTICAS ADICIONAIS: PARA CARTÕES DE MEMÓRIA</t>
   </si>
   <si>
-    <t>BASTÃO DE COLA QUENTE - ESPESSURA: GROSSA 40CM. COMPOSIÇÃO: RESINA DE EVA E RESINA TAQUIFICANTE. PONTO DE AMOLECIMENTO: 91ºC. APLICAÇÃO: PARA PISTOLA DE COLA QUENTE.</t>
+    <t>BASTÃO DE COLA QUENTE - ESPESSURA: GROSSA 40CM. COMPOSIÇÃO: RESINA DE EVA E RESINA TAQUIFICANTE. PONTO DE AMOLECIMENTO: 91°C. APLICAÇÃO: PARA PISTOLA DE COLA QUENTE.</t>
   </si>
   <si>
     <t>PISTOLA - APLICAÇÃO: PARA COLA QUENTE. MATERIAL: PLÁSTICO. VOLTAGEM: BI-VOLT (110 E 220 V). POTÊNCIA: 80W . TAMANHO BASTÃO: GROSSO (11,3 MM X 300 MM). CARACTERÍSTICAS ADICIONAIS: GATILHO ANATÔMICO.</t>
   </si>
   <si>
-    <t>COLA ADESIVA INSTANTÂNEA - COMPOSIÇÃO: CETONA /XILENOL/RESINA VINILICA/POLIEURETANO E EPOXI. COR: INCOLOR. CARACTERISTICAS ADICIONAIS: COM BICO DOSADOR. APLICAÇÃO: MATERIAL ACRÍLICO/LOUÇA/VIDRO /COURO E PLÁSTICO. O MATERIAL DEVERA CONTER A MARCA DO FABRICANTE. APRESENTAÇÃO: EMBALAGEM CONTENDO 100G. .</t>
+    <t>COLA ADESIVA INSTANTÂNEA - COMPOSIÇÃO: CETONA /XILENOL/RESINA VINÌLICA/POLIEURETANO E EPOXI. COR: INCOLOR. CARACTERISTICAS ADICIONAIS: COM BICO DOSADOR. APLICAÇÃO: MATERIAL ACRÍLICO/LOUÇA/VIDRO /COURO E PLÁSTICO. O MATERIAL DEVERA CONTER A MARCA DO FABRICANTE. APRESENTAÇÃO: EMBALAGEM CONTENDO 100G. .</t>
   </si>
   <si>
     <t>COLA. COMPOSIÇÃO: SILICONE. APLICAÇÃO: PISTOLA QUENTE. CARACTERÍSTICAS ADICIONAIS: COM 11 MM DE DIÂMETRO E 30 CM DE COMPRIMENTO. TIPO:BASTÃO.</t>
@@ -544,10 +544,10 @@
     <t>PINCEL ARTE PLÁSTICA, MATERIAL CERDAS: PÊLO SINTÉTICO, TAMANHO: 2, FORMATO: REDONDO, MATERIAL CABO: ACRÍLICO TRANSPARENTE</t>
   </si>
   <si>
-    <t>TINTA ARTÍSTICA, COMPOSIÇÃO:A BASE DE RESINA ACRÍLICA, TIPO ACABAMENTO:FOSCO, COR:MAGENTA, APLICAÇÃO: ARTESANATOS, ROUPAS/TECIDOS, ARRANJOS FLORES SECAS. FRASCO DE 250 ML</t>
-  </si>
-  <si>
-    <t>TOALHA DE ROSTO 100% ALGODÃO, DE 0,40M X 0,80M, FIO PENTEADO, PADRÃO DE QUALIDADE IGUAL OU SUPERIOR À KARSTEN, SANTISTA, TEKA, ARTEX. CORES CLARAS.</t>
+    <t>TINTA ARTÍSTICA, COMPOSIÇÃO:A BASE DE RESINA ACRÍLICA, TIPO ACABAMENTO:FOSCO, COR:MAGENTA, APLICAÇÃO:ARTESANATOS, ROUPAS/TECIDOS, ARRANJOS FLORES SECAS. FRASCO DE 250 ML</t>
+  </si>
+  <si>
+    <t>TOALHA DE ROSTO 100% ALGODÃO, DE 0,40M X 0,80M, FIO PENTEADO, PADRÃO DE QUALIDADE IGUAL OU SUPERIOR A KARSTEN, SANTISTA, TEKA, ARTEX. CORES CLARAS.</t>
   </si>
   <si>
     <t>TECIDO - TIPO: MALHA TENSIONADA.COR : BRANCA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: BRANCO. LARGURA: 1,80 M.</t>
@@ -556,16 +556,16 @@
     <t>TECIDO - TIPO: MALHA TENSIONADA.COR : VERMELHA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: VERMELHO. LARGURA: 1,80 M.</t>
   </si>
   <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3%6 ELASTANO. COR: AMARELO. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIESTER , 396 ELASTANO. COR: AZUL. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIESTER , 396 ELASTANO. COR: PRETO. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3%6 ELASTANO. COR: VERDE. LARGURA: 1,80 M.</t>
+    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: AMARELO. LARGURA: 1,80 M.</t>
+  </si>
+  <si>
+    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: AZUL. LARGURA: 1,80 M.</t>
+  </si>
+  <si>
+    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: PRETO. LARGURA: 1,80 M.</t>
+  </si>
+  <si>
+    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: VERDE. LARGURA: 1,80 M.</t>
   </si>
   <si>
     <t>VASO - MATERIAL: PLÁSTICO. CAPACIDADE: 50 L. COR: PRETA. DIÂMETRO EXTERNO: 30 CM. ALTURA: 50 CM. TIPO: COM FURO. APLICAÇÃO: PARA PLANTAS.</t>

--- a/DOWNLOADS/EDITAIS/U_153036_E_900192025/U_153036_E_900192025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_153036_E_900192025/U_153036_E_900192025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="194">
   <si>
     <t>Nº</t>
   </si>
@@ -391,187 +391,178 @@
     <t>Vaso Vaso Material: Plástico, Capacidade: 6 L, Cor: Preta, Diâmetro Externo: 24 CM, Altura: 20 CM, Tipo: Com Furo, Características Adicionais: Sem Prato</t>
   </si>
   <si>
-    <t>BOMBONA - MATERIAL: PLÁSTICO. CAPACIDADE: 50 LITROS. CARACTERÍSTICAS ADICIONAIS: COM ALÇAS E TAMPA REMOVÍVEL COM LACRE DE PRESSÃO, PRODUZIDA COM MATERIAL ATÓXICO QUE PERMITA O ARMAZENAMENTO DE PRODUTOS ALIMENTÍCIOS.</t>
-  </si>
-  <si>
-    <t>BOMBONA - MATERIAL: PLÁSTICO RESISTENTE. COR: AZUL. CARACTERISTICAS ADICIONAIS: COM TAMPA GRANDE REMOVÍVEL NA PARTE SUPERIOR. CAPACIDADE: 200 LITROS. APLICAÇÃO: DESCARTE DE MATERIAL TÓXICO.</t>
+    <t>BOMBONA - MATERIAL: PLÁSTICO. CAPACIDADE: 50 LITROS. CARACTERÍSTICAS ADICIONAIS: COM ALÇAS E TAMPA</t>
+  </si>
+  <si>
+    <t>BOMBONA - MATERIAL: PLÁSTICO RESISTENTE. COR: AZUL. CARACTERISTICAS ADICIONAIS: COM TAMPA GRANDE</t>
   </si>
   <si>
     <t>CILINDRO GÁS. MATERIAL: ALUMÍNIO CAPACIDADE ARMAZENAGEM: 2 KG. TIPO GÁS: DIÓXIDO DE CARBONO. CARACTERÍSTICAS ADICIONAIS: VÁLVULA COM CONEXÃO PADRÃO.</t>
   </si>
   <si>
-    <t>COMPRESSOR PARA REFRIGERAÇÃO HERMÉTICO ¼ HP – GAS REFRIGERANTE R134-A TENSÃ: 110V, COMPATÍVEIL COM EQUIPAMENTOS DA MARCA ELECTROLUX.</t>
-  </si>
-  <si>
-    <t>CORDA DE SEDA TRANÇADA COM 08 MM DE ESPESSURA EM 100M DE COMPRIMENTO. APRESENTAÇÃO : ROLO 100 METROS</t>
-  </si>
-  <si>
-    <t>CORDA. 6MM DE ESPESSURA. TRANÇADA. MATERIAL: SEDA. MÚLTIPLO USO. ROLO COM NO MÍNIMO 100 METROS DE COMPRIMENTO.</t>
+    <t>COMPRESSOR PARA REFRIGERAÇÃO HERMÉTICO ¼ HP – GAS</t>
+  </si>
+  <si>
+    <t>CORDA DE SEDA TRANÇADA COM 08 MM DE ESPESSURA EM 100 M DE COMPRIMENTO. APRESENTAÇÃO: ROLO 100 METROS. CORDA. 6 MM DE ESPESSURA. TRANÇADA. MATERIAL: SEDA.</t>
   </si>
   <si>
     <t>ESCOVA DE AÇO MATERIAL: AÇO CARBONO. MATERIAL CABO: MADEIRA. QUANTIDADE FIOS AÇO: 4 FILEIRAS. CARACTERÍSTICAS ADICIONAIS: BASE DE MADEIRA.</t>
   </si>
   <si>
-    <t>ENCORDOAMENTO PARA CAVAQUINHO. CORDAS DE AÇO PARA CAVAQUINHO; COMPATÍVEL COM A MARCA GIANNINI - MODELO: J-93; - COMPOSIÇÃO EM AÇO ESTANHADO E LISO. TENSÃO MÉDIA. -ÚMERO DE CORDAS NA EMBALAGEM : 4 CORDAS.</t>
-  </si>
-  <si>
-    <t>ENCORDOAMENTO PARA CONTRABAIXO 4 CORDAS . MATERIAL : AÇO; TENSÃO .045. COMPATÍVEL COM CONTRABAIXO MARCA IBANEZ GSR390. NÚMERO DE CORDAS NA EMBALAGEM : 4 CORDAS.</t>
-  </si>
-  <si>
-    <t>ENCORDOAMENTO PARA GUITARRA IBANEZ GIO GRG270- APLICAÇÃO: GUITARRA. DIMENSÕES: 15.000 X 11.000 X 22.000 CM. MATERIAL: AÇO. TENSÃO: .009 - .042. NÚMERO DE CORDAS NA EMBALAGEM : 6 CORDAS.</t>
-  </si>
-  <si>
-    <t>ENCORDOAMENTO PARA GUITARRA MICHAEL GM230 - MATERIAL DO NÚCLEO: AÇO. MATERIAL DE ENROLAMENTO: AÇO NIQUELADO. TENSÃO LEVE (0.010-0.046). NÚMERO DE CORDAS POR EMBALAGEM: 06 CORDAS.</t>
-  </si>
-  <si>
-    <t>ENCORDOAMENTO PARA VIOLÃO DI GIORGIO Nº 18. ENCORDOAMENTO -TENSÃO: MÉDIA. MATERIAL DE MONOFILAMENTO: NYLON. MATERIAL QUE ENVOLVE O NYLON: COBRE FOLHEADO OU PRATA. NÚMERO DE CORDAS NA EMBALAGEM: 6 CORDAS.</t>
-  </si>
-  <si>
-    <t>FILAMENTO - TIPO: ABS PARA IMPRESSORA 3D. ESPESSURA: 2,85 MM. COR: BRANCO. ROLO DE 1KG.</t>
-  </si>
-  <si>
-    <t>FILAMENTO - TIPO: PLA PARA IMPRESSORA 3D. COR: BRANCO. ESPESSURA: 2,85 MM. ROLO DE 1KG.</t>
-  </si>
-  <si>
-    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR AZUL, PARA IMPRESSORA 3D – MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL.</t>
-  </si>
-  <si>
-    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR BRANCO, PARA IMPRESSORA 3D – MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL..</t>
-  </si>
-  <si>
-    <t>FILAMENTO PLASTICO ABS DE 1,75MM, DE COR PRETA, PARA IMPRESSORA 3D – MATERIAL DE ALTA QUALIDADE, IMPRESSÃO 3D , EM ABS, COM DIAMETRO DE FILAMENTO DE 1,75MM (+-0,10MM), COM TEMPERATURA DE IMPRESSÃO DE 210 A 250ºC, COM 1KG POR CARRETEL.</t>
-  </si>
-  <si>
-    <t>LÂMINA BARBEAR - MATERIAL: AÇO INOXIDÁVEL. COMPRIMENTO 43 MM, LARGURA 22 MM, TIPO USO DESCARTÁVEL. CAIXA COM 03 UNIDADES</t>
-  </si>
-  <si>
-    <t>LÃMINA DE BARBEAR - MATERIAL: AÇO INOXIDÁVEL. COMPRIMENTO: 43 MM. LARGURA: 22 MM. TIPO: USO DESCARTÁVEL. APRESENTAÇÃO: EMBALAGEM COM 50 LÂMINAS.VALOR REFERENTE A EMBALAGEM COM 50 LÂMINAS.</t>
-  </si>
-  <si>
-    <t>BANDEJA OVOS, MATERIAL:PAPELÃO, COMPRIMENTO:30 CM, LARGURA:30 CM, CAPACIDADE:30 UM. CAIXA COM 50 UNIDADES. VALOR REFERENTE CAIXA DE 50 UNIDADES.</t>
-  </si>
-  <si>
-    <t>BANDEJA OVOS, MATERIAL POLITEREFTALATO DE ETILENO, COMPRIMENTO 291, LARGURA 96, CAPACIDADE 30, ALTURA 41. FARDO COM 100 UNIDADES.</t>
+    <t>ENCORDOAMENTO PARA CAVAQUINHO. CORDAS DE AÇO. PARA CAVAQUINHO; COMPATÍVEL COM A MARCA GIANNINI. TENSÃO MÉDIA. — NÚMERO DE CORDAS NA EMBALAGEM: 4 CORDAS.</t>
+  </si>
+  <si>
+    <t>ENCORDOAMENTO PARA CONTRABAIXO. 4 CORDAS. MATERIAL: AÇO. TENSÃO: 0,045. COMPATÍVEL COM. N.º DE CORDAS NA EMBALAGEM.</t>
+  </si>
+  <si>
+    <t>ENCORDOAMENTO PARA GUITARRA. IBANEZ GIO GRG270. APLICAÇÃO: GUITARRA. DIMENSÕES: 15.000 X 11.000 X 22.000.</t>
+  </si>
+  <si>
+    <t>ENCORDOAMENTO PARA GUITARRA. MICHAEL GM230. MATERIAL: AÇO. APLICAÇÃO: GUITARRA. DIMENSÕES: 15.000 X 11.000 X 22.000.</t>
+  </si>
+  <si>
+    <t>ENCORDOAMENTO PARA VIOLÃO. DI GIORGIO. APLICAÇÃO: VIOLÃO. N.º DE CORDAS NA EMBALAGEM: 6 CORDAS.</t>
+  </si>
+  <si>
+    <t>FIGMAT (FILAMENTO) - PLASTICO ABS. TAMANHO: 2,85 MN. COR: BRANCO. APRESENTAÇÃO: COFALO DE 1 KG. NO CONTEUDO: 3 UNIDADES.</t>
+  </si>
+  <si>
+    <t>FIGMAT (FILAMENTO) - PLASTICO ABS. TAMANHO: 1,75 MN. COR: BRANCO. APRESENTAÇÃO: COFALO DE 1 KG. NO CONTEUDO: 3 UNIDADES.</t>
+  </si>
+  <si>
+    <t>FIGMAT (FILAMENTO) - PLASTICO ABS. TAMANHO: 1,75 MN. COR: PRETA. APRESENTAÇÃO: COFALO DE 1 KG. NO CONTEUDO: 3 UNIDADES.</t>
+  </si>
+  <si>
+    <t>LÂMINA BARBEAR. MATERIAL: AÇO INOXIDÁVEL. COMPRIMENTO: 43 MM. LARGURA: 22 MM. TIPO DE USO: DESCARTÁVEL. EMBALAGEM: CAIXA 78 UNIDADES.</t>
+  </si>
+  <si>
+    <t>LÂMINA BARBEAR. MATERIAL: AÇO INOXIDÁVEL. COMPRIMENTO: 43 MM. LARGURA: 22 MM. TIPO DE USO: DESCARTÁVEL. EMBALAGEM: 6 UNIDADES, CAPACIDADE 50 UNIDADES.</t>
+  </si>
+  <si>
+    <t>BANDEJA OVO. MATERIAL: PAPELÃO. COMPRIMENTO: 30 CM, LARGURA: 30 CM, CAPACIDADE: 30 UNIDADES. EMBALAGEM: CAIXA 50 UNIDADES.</t>
+  </si>
+  <si>
+    <t>BANDEJA OVO. MATERIAL: POLITEREFTALATO DE ETILENO. COMPRIMENTO: 291 MM. LARGURA: 96 MM. CAPACIDADE: 30 UNIDADES. ALTURA: 41 MM. EMBALAGEM: FARDO 100 UNIDADES.</t>
   </si>
   <si>
     <t>CORANTE ALIMENTO. APRESENTAÇÃO: LÍQUIDO. COR: VARIADA.</t>
   </si>
   <si>
-    <t>COLHER DESCARTÁVEL. MATERIAL: PLÁSTICO. COR: BRANCA. APLICAÇÃO : REFEIÇÃO. COMPRIMENTO: 13 CM. PACOTE COM 50 UNIDADES.</t>
-  </si>
-  <si>
-    <t>PAPEL ALUMINIO - COMPRIMENTO: 7,50 M. LARGURA: 45 CM. APRESENTAÇÃO: ROLO.</t>
-  </si>
-  <si>
-    <t>PAPEL ALUMÍNIO - MATERIAL: ALUMÍNIO. COMPRIMENTO: 100 M. LARGURA: 30 CM. APRESENTAÇÃO: ROLO.</t>
-  </si>
-  <si>
-    <t>PAPEL ALUMÍNIO - MATERIAL: ALUMÍNIO. COMPRIMENTO: 65 M. LARGURA: 45 CM. APRESENTAÇÃO: ROLO.</t>
-  </si>
-  <si>
-    <t>PAPEL ALUMÍNIO. MATERIAL: ALUMÍNIO. COMPRIMENTO: 7,50M. LARGURA: 30CM. APRESENTAÇÃO: ROLO 7,5 METROS</t>
-  </si>
-  <si>
-    <t>PAPEL FILME, MATERIAL:PVC - CLORETO DE POLIVINILA, COMPRIMENTO:100 M, LARGURA:25 CM. APRESENTAÇÃO ROLO 100 METROS</t>
-  </si>
-  <si>
-    <t>PAPEL FILME- MATERIAL: PVC (CLORETO DE POLIVINILA). COMPRIMENTO: 300 M. LARGURA: 29 CM. APRESENTAÇÃO: ROLO.</t>
-  </si>
-  <si>
-    <t>FILME PLÁSTICO - COMPOSIÇÃO: PVC/CLORETO DE POLIVINILA. COR: TRANSPARENTE. DIMENSÕES APROXIMADAS: LARGURA 28 CM X 30 M. TEMPERATURA DE USO: -10ºC ATÉ + 70ºC. CARACTERÍSTICAS ADICIONAIS: ESTICÁVEL, DESCARTÁVEL E ATÓXICO. APRESENTAÇÃO: ROLO DE 30 METROS.</t>
-  </si>
-  <si>
-    <t>PAPEL MANTEIGA. MATERIAL CELULOSE VEGETAL. GRAMATURA 40G. COMPRIMENTO 7,5 M. LARGURA 29 CM. APLICAÇÃO CULINÁRIA EM GERAL.</t>
-  </si>
-  <si>
-    <t>PLÁSTICO. TIPO MATERIAL: PLÁSTICO IMPERMEÁVEL. TRANSMITÂNCIA: TRANSPARENTE. COR: INCOLOR. LARGURA: 140 CM. APLICAÇÃO: PROTEÇÃO SUPERFÍCIES E OBJETOS. COMPRIMENTO: 50 M.</t>
-  </si>
-  <si>
-    <t>SACO DE RÁFIA VIRGEM COM CAPACIDADE PARA 50 KG - UNIDADE</t>
-  </si>
-  <si>
-    <t>FOLHA ISOPOR. COMPRIMENTO: 100 CM. LARGURA: 50 CM. ESPESSURA: 3 CM.</t>
-  </si>
-  <si>
-    <t>FORMA PARA QUEIJO.FORMA PLÁSTICA REDONDA COM FUNDO EM TELA, PARA QUEIJO MINAS FRESCAL DE 500G, MEDIDAS INTERNAS DE 102MM DE DIÂMETRO X 119MM DE ALTURA</t>
-  </si>
-  <si>
-    <t>PENEIRA COZINHA. MATERIAL: AÇO INOXIDÁVEL. MATERIAL CABO: AÇO INOXIDÁVEL. DIÂMETRO: 27 CM. CARACTERÍSTICAS ADICIONAIS: FORMATO CÔNICO.</t>
-  </si>
-  <si>
-    <t>POTE DESCARTÁVEL – MATERIAL: POLIPROPILENO. FORMATO: REDONDO. CAPACIDADE: 200 ML. CARACTERÍSTICAS ADICIONAIS: MATERIAL ATÓXICO E TRANSPARENTE, COM SOBRETAMPA E SELO DE ALUMÍNIO COM POLIETILENO. APRESENTAÇÃO: EMBALAGEM CONTENDO 100 UNIDADES.VALOR REFERENTE RMBALAGEM COM 100 UNIDADES.</t>
-  </si>
-  <si>
-    <t>POTE DE VIDRO - CAPACIDADE: 2 LITROS. COM TAMPA PLÁSTICA ROSQUEÁVEL.</t>
-  </si>
-  <si>
-    <t>PORTA-BANNER COM LONGARINAS TELESCÓPICAS - BASE RETRÁTIL PESO: 7,20KG ACABAMENTO: PRETO EPOXÍ ALTURA MÁXIMA: 2,80CM X 2,80 CM BENEFICIOS: POSSUI LONGARINAS HORIZONTAIS TELESCÓPICA, PERMITINDO MAIOR OPÇÃO DE AJUSTE DO BANNER EXPOSTO.</t>
-  </si>
-  <si>
-    <t>PORTA-CARTÃO - MATERIAL: RESINA POLICARBONATO. CAPACIDADE: 8 UNIDADES. CARACTERÍSTICAS ADICIONAIS: PARA CARTÕES DE MEMÓRIA</t>
-  </si>
-  <si>
-    <t>BASTÃO DE COLA QUENTE - ESPESSURA: GROSSA 40CM. COMPOSIÇÃO: RESINA DE EVA E RESINA TAQUIFICANTE. PONTO DE AMOLECIMENTO: 91°C. APLICAÇÃO: PARA PISTOLA DE COLA QUENTE.</t>
-  </si>
-  <si>
-    <t>PISTOLA - APLICAÇÃO: PARA COLA QUENTE. MATERIAL: PLÁSTICO. VOLTAGEM: BI-VOLT (110 E 220 V). POTÊNCIA: 80W . TAMANHO BASTÃO: GROSSO (11,3 MM X 300 MM). CARACTERÍSTICAS ADICIONAIS: GATILHO ANATÔMICO.</t>
-  </si>
-  <si>
-    <t>COLA ADESIVA INSTANTÂNEA - COMPOSIÇÃO: CETONA /XILENOL/RESINA VINÌLICA/POLIEURETANO E EPOXI. COR: INCOLOR. CARACTERISTICAS ADICIONAIS: COM BICO DOSADOR. APLICAÇÃO: MATERIAL ACRÍLICO/LOUÇA/VIDRO /COURO E PLÁSTICO. O MATERIAL DEVERA CONTER A MARCA DO FABRICANTE. APRESENTAÇÃO: EMBALAGEM CONTENDO 100G. .</t>
-  </si>
-  <si>
-    <t>COLA. COMPOSIÇÃO: SILICONE. APLICAÇÃO: PISTOLA QUENTE. CARACTERÍSTICAS ADICIONAIS: COM 11 MM DE DIÂMETRO E 30 CM DE COMPRIMENTO. TIPO:BASTÃO.</t>
-  </si>
-  <si>
-    <t>CAIXA EMBALAGEM, MATERIAL: POLIESTIRENO, COMPRIMENTO: 11 CM, ALTURA: 35 MM, COR: INCOLOR, APLICAÇÃO: GERMINAÇÃO DE SEMENTES</t>
-  </si>
-  <si>
-    <t>CAIXA, MATERIAL PLÁSTICO, COMPRIMENTO 205, LARGURA 165, ALTURA 30, APLICAÇÃO ACONDICIONAR LÂMINAS HISTOLÓGICAS</t>
-  </si>
-  <si>
-    <t>CAIXA PLÁSTICA COM TAMPA ORGANIZADORA MULTI USO 20 LITROS, TRANSPARENTE.</t>
-  </si>
-  <si>
-    <t>CAIXA PLÁSTICA - TIPO: CAIXA ORGANIZADORA. MATERIAL: POLIPROPILENO, TRANSPARENTE, RESISTENTE. DIMENSÕES: ALTURA: 34 CM. LARGURA: 38 CM. COMPRIMENTO: 58 CM. FORMATO: RETANGULAR. CARACTERÍSTICA ADICIONAL: COM TAMPA. CAPACIDADE: 50 LITROS.</t>
-  </si>
-  <si>
-    <t>CAIXA PLÁSTICA - TIPO: ORGANIZADORA. DIMENSÕES : 400 X 270 X 133MM. COR: BRANCA. CAPACIDADE: 8,60 LITROS. ADICIONAL: COM TAMPA.</t>
-  </si>
-  <si>
-    <t>TESOURA MULTI USO COM CABO PLASTICO REFORÇADO PRETO, EM FORMATO ANATOMICO, LAMINA EM AÇO INOX, TAMANHO APROXIMADO DE 21 CM, EM EMBALAGEM INDIVIDUAL. O MATERIAL DEVERA CONTER A MARCA DO FABRICANTE.</t>
-  </si>
-  <si>
-    <t>PINCEL ARTE PLÁSTICA, MATERIAL CERDAS: PÊLO SINTÉTICO, TAMANHO: 2, FORMATO: REDONDO, MATERIAL CABO: ACRÍLICO TRANSPARENTE</t>
-  </si>
-  <si>
-    <t>TINTA ARTÍSTICA, COMPOSIÇÃO:A BASE DE RESINA ACRÍLICA, TIPO ACABAMENTO:FOSCO, COR:MAGENTA, APLICAÇÃO:ARTESANATOS, ROUPAS/TECIDOS, ARRANJOS FLORES SECAS. FRASCO DE 250 ML</t>
-  </si>
-  <si>
-    <t>TOALHA DE ROSTO 100% ALGODÃO, DE 0,40M X 0,80M, FIO PENTEADO, PADRÃO DE QUALIDADE IGUAL OU SUPERIOR A KARSTEN, SANTISTA, TEKA, ARTEX. CORES CLARAS.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA.COR : BRANCA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: BRANCO. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA.COR : VERMELHA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: VERMELHO. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: AMARELO. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: AZUL. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: PRETO. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>TECIDO - TIPO: MALHA TENSIONADA. COMPOSIÇÃO: 97% POLIÉSTER , 3% ELASTANO. COR: VERDE. LARGURA: 1,80 M.</t>
-  </si>
-  <si>
-    <t>VASO - MATERIAL: PLÁSTICO. CAPACIDADE: 50 L. COR: PRETA. DIÂMETRO EXTERNO: 30 CM. ALTURA: 50 CM. TIPO: COM FURO. APLICAÇÃO: PARA PLANTAS.</t>
-  </si>
-  <si>
-    <t>VASO, MATERIAL:PLÁSTICO, CAPACIDADE:6 L, COR:PRETA, DIÂMETRO EXTERNO:24 CM, ALTURA:20 CM, TIPO:COM FURO, CARACTERÍSTICAS ADICIONAIS:SEM PRATO</t>
+    <t>COLHER DESCARTÁVEL. MATERIAL: PLÁSTICO. COR: BRANCA. APLICAÇÃO: SOBREMESA. DIM Tamanho: 13 CM, 50 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PAPEL ALUMINIO. MATERIAL: ALUMÍNIO. COMPRIMENTO: 7,50 M. LARGURA: 45 CM. APRESENTAÇÃO: ROLO 100 METROS, MATERIAL: SEDA 6 MM, TRANÇADA.</t>
+  </si>
+  <si>
+    <t>PAPEL ALUMINIO. MATERIAL: ALUMÍNIO. COMPRIMENTO: 100 M. LARGURA: 30 CM. APRESENTAÇÃO: ROLO 100 METROS, MATERIAL: SEDA 6 MM, TRANÇADA.</t>
+  </si>
+  <si>
+    <t>PAPEL ALUMINIO. MATERIAL: ALUMÍNIO. COMPRIMENTO: 65 M. LARGURA: 45 CM. APRESENTAÇÃO: ROLO 15 M, MATERIAL: SEDA 6 MM, TRANÇADA.</t>
+  </si>
+  <si>
+    <t>PAPEL ALUMINIO. MATERIAL: ALUMÍNIO. COMPRIMENTO: 7,50 M. LARGURA: 30 CM. APRESENTAÇÃO: ROLO 4 METROS, MATERIAL: SEDA 6 MM, TRANÇADA.</t>
+  </si>
+  <si>
+    <t>FILME PLÁSTICO. TIPO: ESTIRAVEL, LARGURA 10 CM, APRESENTAÇÃO: ROLO 2 METROS, MATERIAL: PVC, COMPRIMENTO 38 M.</t>
+  </si>
+  <si>
+    <t>PAPEL FILME. MATERIAL: PVC - CLORETO DE POLIVINILA. COMPRIMENTO: 300 M. LARGURA: 29 CM. APRESENTAÇÃO: BOBINA 10 METROS, MATERIAL: PVC, CLORETO DE POLIVINILA.</t>
+  </si>
+  <si>
+    <t>PAPEL FILME. MATERIAL: PVC - CLORETO DE POLIVINILA. COMPRIMENTO: 30 M. LARGURA: 30 CM. APRESENTAÇÃO: 30 METROS, MATERIAL: PVC, CLORETO DE POLIVINILA.</t>
+  </si>
+  <si>
+    <t>PAPEL MANTEIGA. MATERIAL: CELULOSE VEGETAL. GRAMATURA 40 G/M2. COMPRIMENTO 750 CM. LARGURA 29 CM. APLICAÇÃO: CULINÁRIA GERAL. EMBALAGEM: 62 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PLÁSTICO. TIPO: PLÁSTICO IMPERMEÁVEL. TRANSMITÂNCIA: TRANSPARENTE. COR: INCOLOR. LARGURA 1,40 M. APRESENTAÇÃO: ROLO 2 METROS, COMPRIMENTO 50 M, MATERIAL: PLÁSTICO, IMPERMEÁVEL.</t>
+  </si>
+  <si>
+    <t>SACO RAFIA. MATERIAL: RAFIA. ALTURA: 1000 MM. LARGURA: 80 CM. APRESENTAÇÃO: 396 UNIDADES, CAPACIDADE 50 KG.</t>
+  </si>
+  <si>
+    <t>FOLHA ISOPOR. LARGURA: 100 CM. ALTURA: 50 CM. ESPESSURA: 3 CM. EMBALAGEM: 10 METROS, MATERIAL: TELA DE ISOPOR.</t>
+  </si>
+  <si>
+    <t>FORMA PLÁSTICA. TIPO: REDONDA. APLICAÇÃO: QUEIJO MINAS. CAPACIDADE 500 G. TIPO: PERFURADA. EMBALAGEM: 20 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PENEIRA COZINHA. MATERIAL: AÇO INOXIDÁVEL. ROLOS: 1 UNIDADE. DIÂMETRO 27 CM. APRESENTAÇÃO: ROLO 1 METRO, MATERIAL: AÇO INOX. FORMATO CÔNICO.</t>
+  </si>
+  <si>
+    <t>POTE ALIMENTOS. MATERIAL: POLISTIRENO ATÓXICO. CAPACIDADE: 200 ML. EMBALAGEM: 70 UNIDADES, MATERIAL: POLIPROPILENO, TIPO: REDONDO.</t>
+  </si>
+  <si>
+    <t>POTE DE VIDRO. DIÂMETRO 14 CM. ALTURA 19,50 CM. CAPACIDADE 2.000 ML. EMBALAGEM: 8 UNIDADES, MATERIAL: PLÁSTICO, ROSQUEÁVEL.</t>
+  </si>
+  <si>
+    <t>PEDALTE BANNER. MATERIAL: AÇO. ACABAMENTO SUPERFICIAL: PINTURA ELETROSTATICO EM EPÓXIO PRETO. ALTURA MÁXIMA 2,80 M. EMBALAGEM: 24 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PORTA-CARTÃO. MATERIAL: RESINA POLICARBONATO. CAPACIDADE 8 UNIDADES. EMBALAGEM: 2 UNIDADES.</t>
+  </si>
+  <si>
+    <t>COLA QUENTE – BASTÃO. COMPOSIÇÃO: RESINA DE EVA E RESINA TAQUIFICANTE. ESPESSURA 40 CM. EMBALAGEM: 22 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PISTOLA DE COLA QUENTE. MATERIAL: PLÁSTICO. VOLTAGEM BI-VOLT 110/220 V. POTÊNCIA 80W. BASTÃO 11,3 MM X 300 MM, EMBALAGEM: 40 UNIDADES.</t>
+  </si>
+  <si>
+    <t>COLA ADESIVA INSTANTÂNEA. COMPOSIÇÃO: CETONA/XILENOL/RESINA VINILICA/POLIEURETANO E EPÓXI. COR INCOLOR. EMBALAGEM: 2 UNIDADES.</t>
+  </si>
+  <si>
+    <t>COLA QUENTE – BASTÃO. COMPOSIÇÃO: RESINA DE EVA E RESINA TAQUIFICANTE. ESPESSURA 40 CM. EMABLAGEM: 23 UNIDADES.</t>
+  </si>
+  <si>
+    <t>CAIXA DE GERMINAÇÃO DE SEMENTES. MATERIAL: POLISTIRENO. CAPACIDADE 250 ML. EMBALAGEM: 50 UNIDADES, MATERIAL: POLISTIRENO, DIÂMETRO 11 CM, LARGURA 11 CM.</t>
+  </si>
+  <si>
+    <t>CAIXA DE HISTOLÓGICAS. MATERIAL: POLIPROPILENO. CAPACIDADE 30 M. EMBALAGEM: 60 UNIDADES.</t>
+  </si>
+  <si>
+    <t>CAIXA ORGANIZADORA MULTIUSO. CAPACIDADE 50 L. EMBALAGEM: 2 UNIDADES.</t>
+  </si>
+  <si>
+    <t>CAIXA ORGANIZADORA. CAPACIDADE 50 L. EMBALAGEM: 20 UNIDADES.</t>
+  </si>
+  <si>
+    <t>CAIXA ORGANIZADORA. CAPACIDADE 8,60 L. EMBALAGEM: 8 UNIDADES.</t>
+  </si>
+  <si>
+    <t>TESOURA MULTIUSO. EMBALAGEM: 2 UNIDADES, CAPACIDADE 21 CM, MATERIAL: PLÁSTICO REFORÇADO.</t>
+  </si>
+  <si>
+    <t>PINCEL ARTE PLÁSTICA. MATERIAL CERDAS: PÊLO, TAMAÑO 2, FORMATO REDONDO. EMBALAGEM: 60 UNIDADES.</t>
+  </si>
+  <si>
+    <t>TINTA ARTÍSTICA. MATERIAL: BASE DE RESINA ACÍLICA, ACABAMENTO FOSCO, COR MAGENTA. EMBALAGEM: 208 UNIDADES.</t>
+  </si>
+  <si>
+    <t>TOALHA DE ROSTO. MATERIAL 100% ALGODÃO. DIM 0,40M X 0,80M. EMBALAGEM: 6 UNIDADE.</t>
+  </si>
+  <si>
+    <t>TECIDO MALHA TENSADA. MATERIAL 97% POLIÉSTER 3% ELASTANO. COR BRANCA. LARGURA 1,80 M. EMBALAGEM: 5 METROS.</t>
+  </si>
+  <si>
+    <t>TECIDO MALHA TENSADA. MATERIAL 97% POLIÉSTER 3% ELASTANO. COR VERMELHO. LARGURA 1,80 M. EMBALAGEM: 5 METROS.</t>
+  </si>
+  <si>
+    <t>TECIDO MALHA TENSADA. MATERIAL 97% POLIÉSTER 3% ELASTANO. COR AMARELO. LARGURA 1,80 M. EMBALAGEM: 5 METROS.</t>
+  </si>
+  <si>
+    <t>TECIDO MALHA TENSADA. MATERIAL 97% POLIÉSTER 3% ELASTANO. COR AZUL. LARGURA 1,80 M. EMBALAGEM: 5 METROS.</t>
+  </si>
+  <si>
+    <t>TECIDO MALHA TENSADA. MATERIAL 97% POLIÉSTER 3% ELASTANO. COR PRETO. LARGURA 1,80 M. EMBALAGEM: 5 METROS.</t>
+  </si>
+  <si>
+    <t>TECIDO MALHA TENSADA. MATERIAL 97% POLIÉSTER 3% ELASTANO. COR VERDE. LARGURA 1,80 M. EMBALAGEM: 5 METROS.</t>
+  </si>
+  <si>
+    <t>VASO PLÁSTICO. CAPACIDADE 50 L. DIÂMETRO EXTERNO 30 CM. ALTURA 50 CM. EMBALAGEM: 30 UNIDADES.</t>
+  </si>
+  <si>
+    <t>VASO PLÁSTICO. CAPACIDADE 6 L. DIÂMETRO EXTERNO 24 CM. ALTURA 20 CM. EMBALAGEM: 100 UNIDADES.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1014,13 +1005,13 @@
         <v>1134.3</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1043,13 +1034,13 @@
         <v>1806.5</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1072,13 +1063,13 @@
         <v>1090.51</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1101,13 +1092,13 @@
         <v>497.51</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1127,13 +1118,13 @@
         <v>1280.88</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1153,13 +1144,13 @@
         <v>534</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1179,13 +1170,13 @@
         <v>140.88</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1208,13 +1199,13 @@
         <v>370.05</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1237,13 +1228,13 @@
         <v>323.8</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1266,13 +1257,13 @@
         <v>291</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1295,13 +1286,13 @@
         <v>229.05</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1312,7 +1303,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1324,13 +1315,13 @@
         <v>215.1</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1341,7 +1332,7 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1353,13 +1344,13 @@
         <v>398.85</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1370,7 +1361,7 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1379,16 +1370,16 @@
         <v>152.23</v>
       </c>
       <c r="F15">
-        <v>456.6899999999999</v>
+        <v>456.69</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1399,7 +1390,7 @@
         <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1411,13 +1402,13 @@
         <v>296.52</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1428,7 +1419,7 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1440,13 +1431,13 @@
         <v>297.66</v>
       </c>
       <c r="G17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1457,7 +1448,7 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1469,13 +1460,13 @@
         <v>284.43</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1486,7 +1477,7 @@
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D19">
         <v>78</v>
@@ -1495,13 +1486,13 @@
         <v>218.4</v>
       </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1512,7 +1503,7 @@
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -1521,13 +1512,13 @@
         <v>214.74</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1538,7 +1529,7 @@
         <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1547,13 +1538,13 @@
         <v>1013.4</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1564,7 +1555,7 @@
         <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -1573,13 +1564,13 @@
         <v>1169.7</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1590,7 +1581,7 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D23">
         <v>31</v>
@@ -1602,13 +1593,13 @@
         <v>115.63</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1619,7 +1610,7 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1631,13 +1622,13 @@
         <v>49.86</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1648,7 +1639,7 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1657,13 +1648,13 @@
         <v>67.2</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1674,7 +1665,7 @@
         <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D26">
         <v>32</v>
@@ -1683,13 +1674,13 @@
         <v>1673.92</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1700,7 +1691,7 @@
         <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -1712,13 +1703,13 @@
         <v>681.9</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1729,7 +1720,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -1738,13 +1729,13 @@
         <v>19.68</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1755,7 +1746,7 @@
         <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1764,13 +1755,13 @@
         <v>61.64</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1781,7 +1772,7 @@
         <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1790,13 +1781,13 @@
         <v>396.4</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1807,7 +1798,7 @@
         <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1816,13 +1807,13 @@
         <v>219.9</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1833,7 +1824,7 @@
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D32">
         <v>62</v>
@@ -1842,13 +1833,13 @@
         <v>276.52</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1859,7 +1850,7 @@
         <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1868,13 +1859,13 @@
         <v>849.26</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1885,7 +1876,7 @@
         <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34">
         <v>396</v>
@@ -1894,13 +1885,13 @@
         <v>910.8</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1911,7 +1902,7 @@
         <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -1920,13 +1911,13 @@
         <v>99.09999999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1937,7 +1928,7 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D36">
         <v>20</v>
@@ -1946,13 +1937,13 @@
         <v>303.2</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1963,7 +1954,7 @@
         <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1975,13 +1966,13 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1992,7 +1983,7 @@
         <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D38">
         <v>70</v>
@@ -2001,13 +1992,13 @@
         <v>9450</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2018,7 +2009,7 @@
         <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D39">
         <v>8</v>
@@ -2027,13 +2018,13 @@
         <v>251.36</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2044,7 +2035,7 @@
         <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D40">
         <v>24</v>
@@ -2053,13 +2044,13 @@
         <v>3061.44</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2070,7 +2061,7 @@
         <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2079,13 +2070,13 @@
         <v>112.4</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2096,7 +2087,7 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D42">
         <v>22</v>
@@ -2105,13 +2096,13 @@
         <v>68.64</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2122,7 +2113,7 @@
         <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D43">
         <v>40</v>
@@ -2131,13 +2122,13 @@
         <v>1503.2</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2148,7 +2139,7 @@
         <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2157,13 +2148,13 @@
         <v>69.98</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2174,7 +2165,7 @@
         <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D45">
         <v>23</v>
@@ -2183,16 +2174,16 @@
         <v>3.95</v>
       </c>
       <c r="F45">
-        <v>90.85000000000001</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I45" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2203,7 +2194,7 @@
         <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D46">
         <v>50</v>
@@ -2212,13 +2203,13 @@
         <v>1016.5</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2229,7 +2220,7 @@
         <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D47">
         <v>60</v>
@@ -2238,13 +2229,13 @@
         <v>1075.2</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2255,7 +2246,7 @@
         <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2264,13 +2255,13 @@
         <v>88.02</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2281,7 +2272,7 @@
         <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D49">
         <v>20</v>
@@ -2290,13 +2281,13 @@
         <v>1286.2</v>
       </c>
       <c r="G49" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2307,7 +2298,7 @@
         <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -2316,13 +2307,13 @@
         <v>371.52</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2333,7 +2324,7 @@
         <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2342,13 +2333,13 @@
         <v>42.28</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2359,7 +2350,7 @@
         <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D52">
         <v>60</v>
@@ -2368,13 +2359,13 @@
         <v>330</v>
       </c>
       <c r="G52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2385,7 +2376,7 @@
         <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D53">
         <v>208</v>
@@ -2394,13 +2385,13 @@
         <v>10233.6</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2411,7 +2402,7 @@
         <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -2420,13 +2411,13 @@
         <v>139.26</v>
       </c>
       <c r="G54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2437,7 +2428,7 @@
         <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -2449,13 +2440,13 @@
         <v>237.7</v>
       </c>
       <c r="G55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2466,7 +2457,7 @@
         <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -2478,13 +2469,13 @@
         <v>237.7</v>
       </c>
       <c r="G56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2495,7 +2486,7 @@
         <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -2507,13 +2498,13 @@
         <v>237.7</v>
       </c>
       <c r="G57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I57" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2524,7 +2515,7 @@
         <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -2536,13 +2527,13 @@
         <v>237.7</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H58" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2553,7 +2544,7 @@
         <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -2565,13 +2556,13 @@
         <v>237.7</v>
       </c>
       <c r="G59" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I59" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2582,7 +2573,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -2594,13 +2585,13 @@
         <v>237.7</v>
       </c>
       <c r="G60" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2611,7 +2602,7 @@
         <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61">
         <v>30</v>
@@ -2620,13 +2611,13 @@
         <v>1163.1</v>
       </c>
       <c r="G61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2637,7 +2628,7 @@
         <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2646,13 +2637,13 @@
         <v>605</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2672,13 +2663,13 @@
         <v>1134.3</v>
       </c>
       <c r="G63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H63" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2701,13 +2692,13 @@
         <v>1806.5</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H64" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2730,13 +2721,13 @@
         <v>1090.51</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2759,13 +2750,13 @@
         <v>497.51</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2785,13 +2776,13 @@
         <v>1280.88</v>
       </c>
       <c r="G67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2811,13 +2802,13 @@
         <v>534</v>
       </c>
       <c r="G68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H68" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2837,13 +2828,13 @@
         <v>140.88</v>
       </c>
       <c r="G69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2866,13 +2857,13 @@
         <v>370.05</v>
       </c>
       <c r="G70" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H70" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2895,13 +2886,13 @@
         <v>323.8</v>
       </c>
       <c r="G71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2924,13 +2915,13 @@
         <v>291</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2953,13 +2944,13 @@
         <v>229.05</v>
       </c>
       <c r="G73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2970,7 +2961,7 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -2982,13 +2973,13 @@
         <v>215.1</v>
       </c>
       <c r="G74" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2999,7 +2990,7 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3011,13 +3002,13 @@
         <v>398.85</v>
       </c>
       <c r="G75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H75" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I75" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3028,7 +3019,7 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -3037,16 +3028,16 @@
         <v>152.23</v>
       </c>
       <c r="F76">
-        <v>456.6899999999999</v>
+        <v>456.69</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3057,7 +3048,7 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -3069,13 +3060,13 @@
         <v>296.52</v>
       </c>
       <c r="G77" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3086,7 +3077,7 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -3098,13 +3089,13 @@
         <v>297.66</v>
       </c>
       <c r="G78" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H78" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3115,7 +3106,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -3127,13 +3118,13 @@
         <v>284.43</v>
       </c>
       <c r="G79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I79" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3144,7 +3135,7 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D80">
         <v>78</v>
@@ -3153,13 +3144,13 @@
         <v>218.4</v>
       </c>
       <c r="G80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3170,7 +3161,7 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -3179,13 +3170,13 @@
         <v>214.74</v>
       </c>
       <c r="G81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I81" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3196,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D82">
         <v>20</v>
@@ -3205,13 +3196,13 @@
         <v>1013.4</v>
       </c>
       <c r="G82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I82" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3222,7 +3213,7 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D83">
         <v>14</v>
@@ -3231,13 +3222,13 @@
         <v>1169.7</v>
       </c>
       <c r="G83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H83" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3248,7 +3239,7 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D84">
         <v>31</v>
@@ -3260,13 +3251,13 @@
         <v>115.63</v>
       </c>
       <c r="G84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3277,7 +3268,7 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D85">
         <v>9</v>
@@ -3289,13 +3280,13 @@
         <v>49.86</v>
       </c>
       <c r="G85" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3306,7 +3297,7 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D86">
         <v>10</v>
@@ -3315,13 +3306,13 @@
         <v>67.2</v>
       </c>
       <c r="G86" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H86" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3332,7 +3323,7 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D87">
         <v>32</v>
@@ -3341,13 +3332,13 @@
         <v>1673.92</v>
       </c>
       <c r="G87" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I87" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3358,7 +3349,7 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D88">
         <v>15</v>
@@ -3370,13 +3361,13 @@
         <v>681.9</v>
       </c>
       <c r="G88" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H88" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3387,7 +3378,7 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -3396,13 +3387,13 @@
         <v>19.68</v>
       </c>
       <c r="G89" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H89" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3413,7 +3404,7 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -3422,13 +3413,13 @@
         <v>61.64</v>
       </c>
       <c r="G90" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H90" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I90" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3439,7 +3430,7 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -3448,13 +3439,13 @@
         <v>396.4</v>
       </c>
       <c r="G91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H91" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I91" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3465,7 +3456,7 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D92">
         <v>30</v>
@@ -3474,13 +3465,13 @@
         <v>219.9</v>
       </c>
       <c r="G92" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H92" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I92" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3491,7 +3482,7 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D93">
         <v>62</v>
@@ -3500,13 +3491,13 @@
         <v>276.52</v>
       </c>
       <c r="G93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I93" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3517,7 +3508,7 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -3526,13 +3517,13 @@
         <v>849.26</v>
       </c>
       <c r="G94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H94" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I94" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3543,7 +3534,7 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D95">
         <v>396</v>
@@ -3552,13 +3543,13 @@
         <v>910.8</v>
       </c>
       <c r="G95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H95" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3569,7 +3560,7 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D96">
         <v>10</v>
@@ -3578,13 +3569,13 @@
         <v>99.09999999999999</v>
       </c>
       <c r="G96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H96" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I96" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3595,7 +3586,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D97">
         <v>20</v>
@@ -3604,13 +3595,13 @@
         <v>303.2</v>
       </c>
       <c r="G97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H97" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I97" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3621,7 +3612,7 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3633,13 +3624,13 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3650,7 +3641,7 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D99">
         <v>70</v>
@@ -3659,13 +3650,13 @@
         <v>9450</v>
       </c>
       <c r="G99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3676,7 +3667,7 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -3685,13 +3676,13 @@
         <v>251.36</v>
       </c>
       <c r="G100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3702,7 +3693,7 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D101">
         <v>24</v>
@@ -3711,13 +3702,13 @@
         <v>3061.44</v>
       </c>
       <c r="G101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3728,7 +3719,7 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -3737,13 +3728,13 @@
         <v>112.4</v>
       </c>
       <c r="G102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3754,7 +3745,7 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D103">
         <v>22</v>
@@ -3763,13 +3754,13 @@
         <v>68.64</v>
       </c>
       <c r="G103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3780,7 +3771,7 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D104">
         <v>40</v>
@@ -3789,13 +3780,13 @@
         <v>1503.2</v>
       </c>
       <c r="G104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3806,7 +3797,7 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -3815,13 +3806,13 @@
         <v>69.98</v>
       </c>
       <c r="G105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I105" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3832,7 +3823,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D106">
         <v>23</v>
@@ -3841,16 +3832,16 @@
         <v>3.95</v>
       </c>
       <c r="F106">
-        <v>90.85000000000001</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="G106" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H106" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I106" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3861,7 +3852,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D107">
         <v>50</v>
@@ -3870,13 +3861,13 @@
         <v>1016.5</v>
       </c>
       <c r="G107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H107" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I107" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3887,7 +3878,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D108">
         <v>60</v>
@@ -3896,13 +3887,13 @@
         <v>1075.2</v>
       </c>
       <c r="G108" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H108" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I108" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3913,7 +3904,7 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -3922,13 +3913,13 @@
         <v>88.02</v>
       </c>
       <c r="G109" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H109" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I109" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3939,7 +3930,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D110">
         <v>20</v>
@@ -3948,13 +3939,13 @@
         <v>1286.2</v>
       </c>
       <c r="G110" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H110" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3965,7 +3956,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -3974,13 +3965,13 @@
         <v>371.52</v>
       </c>
       <c r="G111" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H111" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I111" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3991,7 +3982,7 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -4000,13 +3991,13 @@
         <v>42.28</v>
       </c>
       <c r="G112" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H112" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I112" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4017,7 +4008,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D113">
         <v>60</v>
@@ -4026,13 +4017,13 @@
         <v>330</v>
       </c>
       <c r="G113" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H113" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I113" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4043,7 +4034,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D114">
         <v>208</v>
@@ -4052,13 +4043,13 @@
         <v>10233.6</v>
       </c>
       <c r="G114" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H114" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I114" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4069,7 +4060,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -4078,13 +4069,13 @@
         <v>139.26</v>
       </c>
       <c r="G115" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H115" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I115" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4095,7 +4086,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -4107,13 +4098,13 @@
         <v>237.7</v>
       </c>
       <c r="G116" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H116" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I116" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4124,7 +4115,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -4136,13 +4127,13 @@
         <v>237.7</v>
       </c>
       <c r="G117" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H117" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I117" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4153,7 +4144,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -4165,13 +4156,13 @@
         <v>237.7</v>
       </c>
       <c r="G118" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H118" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I118" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4182,7 +4173,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -4194,13 +4185,13 @@
         <v>237.7</v>
       </c>
       <c r="G119" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H119" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I119" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4211,7 +4202,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -4223,13 +4214,13 @@
         <v>237.7</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H120" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I120" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4240,7 +4231,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -4252,13 +4243,13 @@
         <v>237.7</v>
       </c>
       <c r="G121" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H121" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I121" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4269,7 +4260,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D122">
         <v>30</v>
@@ -4278,13 +4269,13 @@
         <v>1163.1</v>
       </c>
       <c r="G122" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H122" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I122" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4295,7 +4286,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D123">
         <v>100</v>
@@ -4304,13 +4295,13 @@
         <v>605</v>
       </c>
       <c r="G123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H123" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I123" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
